--- a/testdata/testdatafile.xlsx
+++ b/testdata/testdatafile.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC5C4E-4C8C-4416-B898-457749E8A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CE3F8-1E9C-46B7-842D-2E91C8F2192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Checkout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="160">
   <si>
     <t>TestCase</t>
   </si>
@@ -296,9 +297,6 @@
     <t>searchbycategory</t>
   </si>
   <si>
-    <t>searchbysubcategory</t>
-  </si>
-  <si>
     <t>Productdescription</t>
   </si>
   <si>
@@ -315,18 +313,319 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>searchbymaincategory</t>
+  </si>
+  <si>
+    <t>Productcompare</t>
+  </si>
+  <si>
+    <t>existingproduct</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>twoproduct</t>
+  </si>
+  <si>
+    <t>firstproduct</t>
+  </si>
+  <si>
+    <t>secoundproduct</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>thirdproduct</t>
+  </si>
+  <si>
+    <t>fourthproduct</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>MacBook Air</t>
+  </si>
+  <si>
+    <t>ProductcompareTest</t>
+  </si>
+  <si>
+    <t>Productdisplay</t>
+  </si>
+  <si>
+    <t>ProductdisplayTest</t>
+  </si>
+  <si>
+    <t>threeproduct</t>
+  </si>
+  <si>
+    <t>fourproduct</t>
+  </si>
+  <si>
+    <t>prdtdisplaybyqty</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AddtocartTest</t>
+  </si>
+  <si>
+    <t>Addtocart</t>
+  </si>
+  <si>
+    <t>wishlistpagetest</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>WishlistTest</t>
+  </si>
+  <si>
+    <t>loginaddwishlist</t>
+  </si>
+  <si>
+    <t>MultiProduct</t>
+  </si>
+  <si>
+    <t>Shoppingcart</t>
+  </si>
+  <si>
+    <t>ShoppingcartTest</t>
+  </si>
+  <si>
+    <t>shopcartqty</t>
+  </si>
+  <si>
+    <t>addtocart</t>
+  </si>
+  <si>
+    <t>HP LP3065</t>
+  </si>
+  <si>
+    <t>Deliverydate</t>
+  </si>
+  <si>
+    <t>Qtn</t>
+  </si>
+  <si>
+    <t>25-May 2013</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>CheckoutTEST</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Companyname</t>
+  </si>
+  <si>
+    <t>Cityname</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>countryoption</t>
+  </si>
+  <si>
+    <t>Zoneoption</t>
+  </si>
+  <si>
+    <t>Aptek Ltd</t>
+  </si>
+  <si>
+    <t>Kings Vinue</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Koremangala</t>
+  </si>
+  <si>
+    <t>560034</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>existingaccount</t>
+  </si>
+  <si>
+    <t>newaccount</t>
+  </si>
+  <si>
+    <t>ravi8@gmail.com</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>guestuser</t>
+  </si>
+  <si>
+    <t>surava8@gmail.com</t>
+  </si>
+  <si>
+    <t>8678954321</t>
+  </si>
+  <si>
+    <t>newreguser</t>
+  </si>
+  <si>
+    <t>COPassword</t>
+  </si>
+  <si>
+    <t>COConfirmpassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,9 +814,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -530,94 +829,159 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,6 +989,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -978,9 +1357,57 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -992,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1006,25 +1433,25 @@
     <col min="4" max="4" width="16.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="29" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" s="21" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
@@ -1611,18 +2038,18 @@
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10">
       <c r="D35" s="11"/>
@@ -1898,18 +2325,18 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="25" t="s">
@@ -2081,18 +2508,18 @@
       </c>
     </row>
     <row r="84" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="27" t="s">
@@ -2156,8 +2583,8 @@
       <c r="C92" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="26" t="s">
-        <v>7</v>
+      <c r="D92" s="36" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2193,12 +2620,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:10">
       <c r="A98" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:10">
       <c r="A99" s="3" t="s">
         <v>1</v>
       </c>
@@ -2206,13 +2633,13 @@
         <v>3</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>2</v>
       </c>
@@ -2226,12 +2653,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:10">
       <c r="A102" s="30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:10">
       <c r="A103" s="3" t="s">
         <v>1</v>
       </c>
@@ -2242,16 +2669,16 @@
         <v>81</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:10">
       <c r="A104" s="5" t="s">
         <v>2</v>
       </c>
@@ -2271,12 +2698,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    <row r="106" spans="1:10">
+      <c r="A106" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="3" t="s">
         <v>1</v>
       </c>
@@ -2286,15 +2713,15 @@
       <c r="C107" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" s="37"/>
+      <c r="D107" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" s="62"/>
       <c r="F107" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:10">
       <c r="A108" s="5" t="s">
         <v>2</v>
       </c>
@@ -2304,24 +2731,580 @@
       <c r="C108" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D108" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="26" t="s">
+      <c r="D108" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="64"/>
+      <c r="F108" s="36" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="110" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A110" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F125" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A129" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A135" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="60"/>
+      <c r="J135" s="60"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F139" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="C140" s="12"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="50"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F143" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="G143" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H143" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="C144" s="12"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="50"/>
+    </row>
+    <row r="146" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A146" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="60"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A156" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="60"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="60"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="60"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A34:J34"/>
+  <mergeCells count="11">
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A146:J146"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A64:J64"/>
     <mergeCell ref="A84:J84"/>
     <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="A129:J129"/>
+    <mergeCell ref="A110:J110"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{9FDA2712-3B26-4EA5-81E8-CE808F6A1B9C}"/>
     <hyperlink ref="C38" r:id="rId2" xr:uid="{2E34C7B8-FF81-4E69-A7DF-80E7741D4EA2}"/>
@@ -2343,4 +3326,517 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D6CD7-CE54-4157-92C3-501A8B677F0A}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="15.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="18.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="15.75">
+      <c r="A1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:19" s="21" customFormat="1" ht="15.75">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" s="4" customFormat="1">
+      <c r="A3" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1">
+      <c r="A7" s="56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1">
+      <c r="A11" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="4" customFormat="1">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="4" customFormat="1">
+      <c r="A15" s="65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="4" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{F31A023B-0A95-436D-B18A-87A0D05CACA5}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{23B9B250-C443-41D6-9043-EB3F237BE464}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{80C7A42A-D650-488A-8460-114814BE71D6}"/>
+    <hyperlink ref="O13" r:id="rId4" xr:uid="{F073799E-621D-4093-AEC6-3D1619D8AC4C}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{E0DE517D-F10F-44FF-927F-BD558B48FA57}"/>
+    <hyperlink ref="O17" r:id="rId6" xr:uid="{4346032B-887F-439F-9B0B-35A8ECB200B5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/testdata/testdatafile.xlsx
+++ b/testdata/testdatafile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF9AF46-E636-4211-9139-FCE5B84F7518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F60BE-EEAB-4941-B634-F5DF0B89104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="213">
   <si>
     <t>TestCase</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Forgotpassword</t>
   </si>
   <si>
-    <t>unregisteredemail</t>
-  </si>
-  <si>
     <t>prajwal121@gmail.com</t>
   </si>
   <si>
@@ -235,12 +232,6 @@
     <t>pawan</t>
   </si>
   <si>
-    <t>pawangmail.com</t>
-  </si>
-  <si>
-    <t>pawan@gmai</t>
-  </si>
-  <si>
     <t>@gmai.com</t>
   </si>
   <si>
@@ -680,18 +671,28 @@
   </si>
   <si>
     <t>Greatings Sir I Have Added Product To The Cart But Was Not Able To Make Payments</t>
+  </si>
+  <si>
+    <t>newaccntwith_0wishlist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,9 +1126,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1140,16 +1141,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,12 +1171,6 @@
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1179,189 +1186,186 @@
     <xf numFmtId="49" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="39" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="50" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,10 +1374,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1728,7 +1732,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1736,7 +1740,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -1744,7 +1748,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -1752,7 +1756,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1760,7 +1764,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="46" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -1768,7 +1772,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -1776,7 +1780,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -1784,7 +1788,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -1792,7 +1796,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="69" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -1800,7 +1804,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="73" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -1808,7 +1812,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -1816,7 +1820,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="77" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -1824,7 +1828,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -1832,7 +1836,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -1840,7 +1844,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -1848,7 +1852,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -1856,7 +1860,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -1864,7 +1868,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="88" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1872,7 +1876,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -1880,7 +1884,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
@@ -1910,18 +1914,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2040,18 +2044,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2063,7 +2067,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
@@ -2080,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -2100,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>7</v>
@@ -2109,7 +2113,7 @@
     <row r="6" spans="1:10" s="4" customFormat="1"/>
     <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1">
@@ -2126,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
@@ -2140,13 +2144,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>7</v>
@@ -2181,18 +2185,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2204,7 +2208,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
@@ -2221,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -2241,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>7</v>
@@ -2250,7 +2254,7 @@
     <row r="6" spans="1:10" s="4" customFormat="1"/>
     <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1">
@@ -2267,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
@@ -2281,13 +2285,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>7</v>
@@ -2323,18 +2327,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2346,7 +2350,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
@@ -2363,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -2383,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>7</v>
@@ -2392,7 +2396,7 @@
     <row r="6" spans="1:10" s="4" customFormat="1"/>
     <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1">
@@ -2409,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
@@ -2423,13 +2427,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>7</v>
@@ -2465,18 +2469,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2488,7 +2492,7 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
@@ -2505,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -2525,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>7</v>
@@ -2534,7 +2538,7 @@
     <row r="6" spans="1:10" s="4" customFormat="1"/>
     <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1">
@@ -2551,7 +2555,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>5</v>
@@ -2565,13 +2569,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>7</v>
@@ -2607,20 +2611,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2634,7 +2638,7 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
@@ -2651,13 +2655,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>5</v>
@@ -2677,13 +2681,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>7</v>
@@ -2692,7 +2696,7 @@
     <row r="6" spans="1:12" s="4" customFormat="1"/>
     <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
@@ -2709,13 +2713,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
@@ -2729,19 +2733,19 @@
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>7</v>
@@ -2780,20 +2784,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -2807,7 +2811,7 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
@@ -2818,22 +2822,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>5</v>
@@ -2847,7 +2851,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>34</v>
@@ -2856,13 +2860,13 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H5" s="90" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>7</v>
@@ -2871,7 +2875,7 @@
     <row r="6" spans="1:12" s="4" customFormat="1"/>
     <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
@@ -2882,22 +2886,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
@@ -2914,19 +2918,19 @@
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I9" s="90" t="s">
         <v>28</v>
@@ -2948,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2969,18 +2973,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="21" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
@@ -3480,18 +3484,18 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
     </row>
     <row r="32" spans="1:10">
       <c r="D32" s="11"/>
@@ -3767,22 +3771,22 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A61" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
+      <c r="A61" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3799,522 +3803,512 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:10">
       <c r="A65" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="25" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="24" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="26" t="s">
+      <c r="D71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="26" t="s">
+      <c r="D72" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A74" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>69</v>
+      <c r="C78" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="D78" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="6" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A81" s="91" t="s">
+    <row r="88" spans="1:6">
+      <c r="A88" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="91"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="26" t="s">
+      <c r="D94" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="E97" s="94"/>
+      <c r="F97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="26" t="s">
+      <c r="C98" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="96"/>
+      <c r="F98" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="26" t="s">
+    <row r="100" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A100" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="26" t="s">
+      <c r="C104" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D93" s="26" t="s">
+      <c r="C108" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="26" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" s="26" t="s">
+      <c r="C112" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E112" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="26" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F101" s="26" t="s">
+      <c r="C116" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F116" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G116" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="E104" s="93"/>
-      <c r="F104" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="E105" s="95"/>
-      <c r="F105" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A107" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" s="91"/>
-      <c r="C107" s="91"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="91"/>
-      <c r="J107" s="91"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D115" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A119" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" s="36" t="s">
+    <row r="119" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A119" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="F119" s="26" t="s">
-        <v>7</v>
-      </c>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+      <c r="J119" s="92"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4325,18 +4319,12 @@
         <v>3</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F122" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G122" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4348,141 +4336,158 @@
         <v>22</v>
       </c>
       <c r="C123" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E123" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F123" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G123" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A126" s="91" t="s">
-        <v>102</v>
-      </c>
-      <c r="B126" s="91"/>
-      <c r="C126" s="91"/>
-      <c r="D126" s="91"/>
-      <c r="E126" s="91"/>
-      <c r="F126" s="91"/>
-      <c r="G126" s="91"/>
-      <c r="H126" s="91"/>
-      <c r="I126" s="91"/>
-      <c r="J126" s="91"/>
+    <row r="125" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A125" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="39" t="s">
-        <v>105</v>
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="26" t="s">
+      <c r="A129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F129" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="C130" s="12"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="50"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C130" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E130" s="26" t="s">
+      <c r="C133" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G133" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="H133" s="43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A132" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="91"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="91"/>
-      <c r="E132" s="91"/>
-      <c r="F132" s="91"/>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-    </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F136" s="43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="C137" s="12"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="50"/>
+      <c r="C134" s="12"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="50"/>
+    </row>
+    <row r="136" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A136" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="92"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="92"/>
+      <c r="H136" s="92"/>
+      <c r="I136" s="92"/>
+      <c r="J136" s="92"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4499,15 +4504,9 @@
         <v>4</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H139" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4516,7 +4515,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>34</v>
@@ -4524,229 +4523,159 @@
       <c r="D140" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E140" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F140" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G140" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H140" s="43" t="s">
+      <c r="E140" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F140" s="43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
-      <c r="C141" s="12"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="50"/>
-    </row>
-    <row r="143" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A143" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" s="91"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="91"/>
-      <c r="G143" s="91"/>
-      <c r="H143" s="91"/>
-      <c r="I143" s="91"/>
-      <c r="J143" s="91"/>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="8" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" s="43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="21" customFormat="1" ht="15.75">
+      <c r="A146" s="92" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F147" s="43" t="s">
+      <c r="B146" s="92"/>
+      <c r="C146" s="92"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="92"/>
+      <c r="G146" s="92"/>
+      <c r="H146" s="92"/>
+      <c r="I146" s="92"/>
+      <c r="J146" s="92"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F151" s="43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A153" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="91"/>
-      <c r="C153" s="91"/>
-      <c r="D153" s="91"/>
-      <c r="E153" s="91"/>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91"/>
-      <c r="H153" s="91"/>
-      <c r="I153" s="91"/>
-      <c r="J153" s="91"/>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A157" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="26" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C157" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D157" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A161" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D161" s="26" t="s">
+      <c r="C154" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="26" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A153:J153"/>
-    <mergeCell ref="A143:J143"/>
+    <mergeCell ref="A146:J146"/>
+    <mergeCell ref="A136:J136"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A132:J132"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A107:J107"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A119:J119"/>
+    <mergeCell ref="A100:J100"/>
+    <mergeCell ref="D98:E98"/>
     <mergeCell ref="A31:J31"/>
   </mergeCells>
-  <phoneticPr fontId="47" type="noConversion"/>
+  <phoneticPr fontId="48" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{9FDA2712-3B26-4EA5-81E8-CE808F6A1B9C}"/>
     <hyperlink ref="C35" r:id="rId2" xr:uid="{2E34C7B8-FF81-4E69-A7DF-80E7741D4EA2}"/>
@@ -4757,13 +4686,11 @@
     <hyperlink ref="C39" r:id="rId7" xr:uid="{84EFDE0D-AED5-4CB7-AE5E-D39862B45842}"/>
     <hyperlink ref="C43" r:id="rId8" xr:uid="{F09E7969-36C4-4747-A4AB-C1BFB2BDEC54}"/>
     <hyperlink ref="C65" r:id="rId9" xr:uid="{667668CA-4EBC-42E3-AD07-F9E9147BC29A}"/>
-    <hyperlink ref="C71" r:id="rId10" xr:uid="{1484F7F4-59BD-46A2-9525-32004EF37C55}"/>
-    <hyperlink ref="C77" r:id="rId11" xr:uid="{04CA0C41-3854-4D93-BF52-767491593E46}"/>
-    <hyperlink ref="C78" r:id="rId12" xr:uid="{81591340-AAF2-4C4D-86DB-B607CB87EEDF}"/>
-    <hyperlink ref="C79" r:id="rId13" xr:uid="{97DCA562-D6A4-45D9-884C-55BFF59E7094}"/>
+    <hyperlink ref="C72" r:id="rId10" xr:uid="{04CA0C41-3854-4D93-BF52-767491593E46}"/>
+    <hyperlink ref="C144" r:id="rId11" xr:uid="{40CDF95E-42EC-4D58-89CF-21B9158247F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -4792,20 +4719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
@@ -4823,7 +4750,7 @@
     </row>
     <row r="3" spans="1:19" s="4" customFormat="1">
       <c r="A3" s="56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="4" customFormat="1">
@@ -4840,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -4849,25 +4776,25 @@
         <v>9</v>
       </c>
       <c r="H4" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="54" t="s">
+      <c r="N4" s="58" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>133</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>5</v>
@@ -4881,13 +4808,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -4896,25 +4823,25 @@
         <v>18</v>
       </c>
       <c r="H5" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="K5" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="55" t="s">
+      <c r="M5" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="N5" s="57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>7</v>
@@ -4932,7 +4859,7 @@
     </row>
     <row r="7" spans="1:19" s="4" customFormat="1">
       <c r="A7" s="56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="4" customFormat="1">
@@ -4949,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
@@ -4958,25 +4885,25 @@
         <v>9</v>
       </c>
       <c r="H8" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="54" t="s">
+      <c r="N8" s="54" t="s">
         <v>130</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>133</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>5</v>
@@ -4990,13 +4917,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
@@ -5005,25 +4932,25 @@
         <v>18</v>
       </c>
       <c r="H9" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="K9" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="J9" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="55" t="s">
+      <c r="M9" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="N9" s="57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>7</v>
@@ -5031,7 +4958,7 @@
     </row>
     <row r="11" spans="1:19" s="4" customFormat="1">
       <c r="A11" s="60" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1">
@@ -5048,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -5057,25 +4984,25 @@
         <v>9</v>
       </c>
       <c r="H12" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="K12" s="54" t="s">
+      <c r="N12" s="54" t="s">
         <v>130</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="N12" s="54" t="s">
-        <v>133</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>10</v>
@@ -5095,13 +5022,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -5110,31 +5037,31 @@
         <v>18</v>
       </c>
       <c r="H13" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="K13" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="55" t="s">
+      <c r="M13" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="N13" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="59" t="s">
         <v>144</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P13" s="59" t="s">
-        <v>147</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>7</v>
@@ -5142,7 +5069,7 @@
     </row>
     <row r="15" spans="1:19" s="4" customFormat="1">
       <c r="A15" s="60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="4" customFormat="1">
@@ -5159,7 +5086,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>8</v>
@@ -5168,25 +5095,25 @@
         <v>9</v>
       </c>
       <c r="H16" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" s="54" t="s">
+      <c r="N16" s="54" t="s">
         <v>130</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" s="54" t="s">
-        <v>133</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>10</v>
@@ -5195,10 +5122,10 @@
         <v>11</v>
       </c>
       <c r="Q16" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R16" s="63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>5</v>
@@ -5212,13 +5139,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
@@ -5227,31 +5154,31 @@
         <v>18</v>
       </c>
       <c r="H17" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="K17" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="55" t="s">
+      <c r="M17" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="N17" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="59" t="s">
         <v>144</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" s="59" t="s">
-        <v>147</v>
       </c>
       <c r="Q17" s="61" t="s">
         <v>15</v>
@@ -5298,16 +5225,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
@@ -5321,7 +5248,7 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1">
@@ -5344,7 +5271,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="66" t="s">
         <v>11</v>
@@ -5361,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>15</v>
@@ -5373,10 +5300,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>7</v>
@@ -5391,7 +5318,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" s="65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -5414,7 +5341,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>11</v>
@@ -5431,7 +5358,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>15</v>
@@ -5475,14 +5402,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:7" s="21" customFormat="1" ht="15.75">
       <c r="A2" s="22"/>
@@ -5494,7 +5421,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1">
       <c r="A3" s="68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
@@ -5511,10 +5438,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
@@ -5528,16 +5455,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>7</v>
@@ -5550,7 +5477,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
       <c r="A7" s="72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
@@ -5567,10 +5494,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
@@ -5584,7 +5511,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>15</v>
@@ -5627,18 +5554,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1">
       <c r="D2" s="11"/>
@@ -5729,7 +5656,7 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="74" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1">
@@ -5746,25 +5673,25 @@
         <v>9</v>
       </c>
       <c r="E12" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="75" t="s">
+      <c r="K12" s="75" t="s">
         <v>130</v>
-      </c>
-      <c r="I12" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>133</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>10</v>
@@ -5790,25 +5717,25 @@
         <v>18</v>
       </c>
       <c r="E13" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="H13" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="55" t="s">
+      <c r="J13" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="K13" s="57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>34</v>
@@ -5826,7 +5753,7 @@
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1">
       <c r="A15" s="76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1">
@@ -5843,25 +5770,25 @@
         <v>9</v>
       </c>
       <c r="E16" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="54" t="s">
+      <c r="K16" s="75" t="s">
         <v>130</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="75" t="s">
-        <v>133</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>10</v>
@@ -5887,25 +5814,25 @@
         <v>18</v>
       </c>
       <c r="E17" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="H17" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="55" t="s">
+      <c r="J17" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="K17" s="57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>34</v>
@@ -5974,21 +5901,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1">
@@ -5999,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -6019,7 +5946,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>34</v>
@@ -6034,7 +5961,7 @@
     <row r="6" spans="1:9" s="4" customFormat="1"/>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -6045,7 +5972,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -6065,7 +5992,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -6080,7 +6007,7 @@
     <row r="10" spans="1:9" s="4" customFormat="1"/>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
@@ -6091,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -6111,7 +6038,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>34</v>
@@ -6126,7 +6053,7 @@
     <row r="14" spans="1:9" s="4" customFormat="1"/>
     <row r="15" spans="1:9" s="4" customFormat="1">
       <c r="A15" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1">
@@ -6137,7 +6064,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -6157,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
@@ -6172,7 +6099,7 @@
     <row r="18" spans="1:8" s="4" customFormat="1"/>
     <row r="19" spans="1:8" s="4" customFormat="1">
       <c r="A19" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="4" customFormat="1">
@@ -6183,13 +6110,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -6209,13 +6136,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>34</v>
@@ -6259,22 +6186,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1">
@@ -6285,7 +6212,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -6305,7 +6232,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>34</v>
@@ -6320,7 +6247,7 @@
     <row r="6" spans="1:10" s="4" customFormat="1"/>
     <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="A7" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1">
@@ -6331,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -6351,7 +6278,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -6394,25 +6321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="A1" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:12" s="4" customFormat="1">
       <c r="A3" s="79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1">
@@ -6423,7 +6350,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -6432,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
@@ -6446,7 +6373,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>34</v>
@@ -6455,7 +6382,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>7</v>
@@ -6464,7 +6391,7 @@
     <row r="6" spans="1:12" s="4" customFormat="1"/>
     <row r="7" spans="1:12" s="4" customFormat="1">
       <c r="A7" s="81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
@@ -6475,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -6484,10 +6411,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>5</v>
@@ -6501,7 +6428,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -6510,10 +6437,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="82" t="s">
         <v>177</v>
-      </c>
-      <c r="G9" s="82" t="s">
-        <v>180</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>28</v>
@@ -6527,7 +6454,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>34</v>
@@ -6536,10 +6463,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="G10" s="82" t="s">
-        <v>181</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>28</v>

--- a/testdata/testdatafile.xlsx
+++ b/testdata/testdatafile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F60BE-EEAB-4941-B634-F5DF0B89104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05C194-F98D-46EA-820A-F38217D8B14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
@@ -4699,7 +4699,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4808,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>15</v>
